--- a/1.- wc_FX_Risk_I.xlsx
+++ b/1.- wc_FX_Risk_I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4CB081-02F0-4D47-BA9E-E3235F4B7510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667B569-EE30-E54A-B264-8D62ED47723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -111,8 +111,8 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -669,18 +669,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1184,7 +1184,7 @@
   <dimension ref="A12:L1319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35860,7 +35860,7 @@
         <v>4186640.3770600045</v>
       </c>
       <c r="G1295" s="10">
-        <f t="shared" ref="G1295:G1319" si="83">F1295/F1296-1</f>
+        <f t="shared" ref="G1295:G1318" si="83">F1295/F1296-1</f>
         <v>1.3061992022738167E-3</v>
       </c>
     </row>
